--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2767.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2767.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165152122360585</v>
+        <v>1.601795673370361</v>
       </c>
       <c r="B1">
-        <v>2.424455756727953</v>
+        <v>1.719259977340698</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.967326045036316</v>
       </c>
       <c r="D1">
-        <v>2.371196989053689</v>
+        <v>3.174352645874023</v>
       </c>
       <c r="E1">
-        <v>1.227261246286634</v>
+        <v>3.781453132629395</v>
       </c>
     </row>
   </sheetData>
